--- a/docs/shrcore/shr-core-RepeatCount-model.xlsx
+++ b/docs/shrcore/shr-core-RepeatCount-model.xlsx
@@ -143,11 +143,11 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">integer {[]} {[]}
+    <t xml:space="preserve">positiveInt {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Integer representing a total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
+    <t>PositiveInt representing a total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -315,7 +315,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="202.58984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="205.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
